--- a/documentos de carga/departamentos/21/Opex_Non Opex.xlsx
+++ b/documentos de carga/departamentos/21/Opex_Non Opex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sclvia\Documents\AKD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gischa\Documents\giovanni\proyecto\AKDRILING\fuentes\documentos de carga\departamentos\21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F95332A-8283-4719-B40A-B45B44AB8E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC6DBCB-AB3B-477E-9871-536AE15A8746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32FD24CB-49FF-479F-BD0D-4B6995D7182E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32FD24CB-49FF-479F-BD0D-4B6995D7182E}"/>
   </bookViews>
   <sheets>
     <sheet name="Opex_Non Opex" sheetId="1" r:id="rId1"/>
@@ -69,25 +69,25 @@
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{060BDEA8-ABB1-473B-AE3C-D28EF241894D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Maquina/Proyecto/Opex/Non Opex</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="2" shapeId="0" xr:uid="{23A15885-77F1-48C5-BE5C-A6C5BAE4B48B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Campo texto a digitarse por el usuario</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="3" shapeId="0" xr:uid="{FD117103-3773-4A8A-9D23-0CA1C76D892E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Todos los miercoles del mes del Presupuesto</t>
       </text>
     </comment>
@@ -784,10 +784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1047,11 +1047,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1079,13 +1079,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,8 +1106,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,9 +1122,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1166,7 +1166,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1180,9 +1180,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{418D8147-7E1A-423C-92F1-005BDBCD5553}"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6F41B8AA-D353-495D-A799-867D68717E28}"/>
     <cellStyle name="Normal 3 2" xfId="4" xr:uid="{6D206A30-5CDF-4EA4-BBDD-96E5CDA7A6EB}"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1519,11 +1519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7375481-8A0C-46C2-A999-3A33C28A6FBB}">
   <dimension ref="A1:AK707"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" style="49" bestFit="1" customWidth="1"/>
@@ -1735,7 +1735,9 @@
       <c r="S2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="18"/>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
@@ -28579,6 +28581,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>